--- a/biology/Zoologie/Carpophage_pacifique/Carpophage_pacifique.xlsx
+++ b/biology/Zoologie/Carpophage_pacifique/Carpophage_pacifique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula pacifica
 Le Carpophage pacifique (Ducula pacifica) est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure 36 à 41 cm de longueur pour une masse de 370 à 420 g. La femelle est légèrement plus petite que le mâle.
 Il présente une tête, un cou et une poitrine grise, cette dernière étant lavé de rosâtre. Le dos, les ailes et la queue sont vert noirâtre. Les sous-caudales sont brunes. Le bec est noir avec une grosse protubérance à la base de la mandibule supérieure. Les iris sont rouges et les pattes rouge brunâtre.
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple de nombreuses îles du sud-ouest de l'Océanie : Nouvelle-Guinée, Archipel Bismarck, Louisiades, îles Salomon, Wallis et Futuna, Tuvalu, etc.
 </t>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts humides des grandes îles jusqu'à 1 000 m d'altitude et dans les forêts et bois xérophiles littoraux sur les petites.
 </t>
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit presque toujours dans les arbres (en particulier dans la canopée), rarement au sol, essentiellement de fruits mais aussi de fleurs et de jeunes feuilles. Quand la nourriture est abondante, il peut constituer des groupes importants.
 </t>
@@ -638,7 +658,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien dissimulé dans la végétation, le nid est construit dans les arbres le plus souvent entre 20 et 25 m, rarement entre 8 et 10 m. La femelle pond un seul œuf blanc (40 × 29 mm). L'incubation dure entre 19 et 21 jours. Le jeune s'envole vers l'âge d'une vingtaine de jours.
 </t>
@@ -669,7 +691,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Deux sous-espèces sont généralement admises :
 Ducula pacifica pacifica (Gmelin, 1789) ;
